--- a/30 議事録/議事録_20131107.xlsx
+++ b/30 議事録/議事録_20131107.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="181">
   <si>
     <t>配布資料</t>
     <rPh sb="0" eb="2">
@@ -1983,52 +1983,6 @@
   </si>
   <si>
     <t>　　　　・精算完了はチェックボックスにする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　　　　・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[NOZOMI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>へ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で精算番号を自動採番</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2285,27 +2239,6 @@
     <t>　　　　　　ドクター氏名　　　　</t>
   </si>
   <si>
-    <t>　　　　　　宿泊費　　　　　　　【交通・宿泊手配】宿泊費(税込)</t>
-  </si>
-  <si>
-    <t>　　　　　　JR代　　　　　　　　【交通・宿泊手配】JR・鉄道代金＋JR・鉄道取消料</t>
-  </si>
-  <si>
-    <t>　　　　　　航空券代　　　　　　【交通・宿泊手配】航空券代金＋航空券取消料</t>
-  </si>
-  <si>
-    <t>　　　　　　その他鉄道等費用　　【交通・宿泊手配】その他鉄道等代金＋その他鉄道等取消料</t>
-  </si>
-  <si>
-    <t>　　　　　　登録手数料　　　　　【交通・宿泊手配】手数料(交通・宿泊)</t>
-  </si>
-  <si>
-    <t>　　　　　　タクチケ発券手数料　【交通・宿泊手配】手数料(タクチケ発券手数料)</t>
-  </si>
-  <si>
-    <t>　　　　　　タクシー実車料金　　【タクチケシステム】</t>
-  </si>
-  <si>
     <t>　　　　　　タクチケ精算手数料　【タクチケシステム】</t>
   </si>
   <si>
@@ -2365,12 +2298,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　　　　　　社員宿泊費(非課税)【交通・宿泊手配】MR宿泊費(税込)</t>
-  </si>
-  <si>
-    <t>　　　　　　社員交通費(非課税)【交通・宿泊手配】MR　交通費</t>
-  </si>
-  <si>
     <t>　＜受信ファイル取込処理＞</t>
     <rPh sb="2" eb="4">
       <t>ジュシン</t>
@@ -2418,7 +2345,75 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　　　・税抜金額を送付する　※消費税率は講演会開催日(FROM)に従う。</t>
+    <t>　　　　　会場手配は税抜額なので、税抜計算は不要。</t>
+    <rPh sb="5" eb="7">
+      <t>カイジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼイヌキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゼイヌキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　精算は、小計合計は税込額を集計した値になっているので、各値を税抜後に再度集計して算出する。</t>
+    <rPh sb="5" eb="7">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクアタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゼイヌキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　・税抜金額を送付する　※消費税率は講演会開催日(FROM)に従う。切り捨て。</t>
     <rPh sb="4" eb="6">
       <t>ゼイヌキ</t>
     </rPh>
@@ -2427,6 +2422,267 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ソウフ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　社員宿泊費(非課税)　　　【交通・宿泊手配】MR宿泊費(税込)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　社員都税　　　　　　　　　　【交通・宿泊手配】MR都税</t>
+    <rPh sb="8" eb="10">
+      <t>トゼイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　社員交通費(非課税)　　　【交通・宿泊手配】MR　交通費</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　宿泊費　　　　　　　　　【交通・宿泊手配】宿泊費(税込)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　登録手数料　　　　　　【交通・宿泊手配】手数料(交通・宿泊)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　タクチケ発券手数料　【交通・宿泊手配】手数料(タクチケ発券手数料)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　タクシー実車料金 　　【タクチケシステム】</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　その他鉄道等費用 　【交通・宿泊手配】その他鉄道等代金＋その他鉄道等取消料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　航空券代　　　　　　 　【交通・宿泊手配】航空券代金＋航空券取消料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　JR代　　 　　　 　　　　【交通・宿泊手配】JR・鉄道代金＋JR・鉄道取消料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　都税　　 　　　　　　　　【交通・宿泊手配】都税</t>
+    <rPh sb="6" eb="8">
+      <t>トゼイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トゼイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　・税込額を出力する。</t>
+    <rPh sb="4" eb="6">
+      <t>ゼイコミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　　・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[NOZOMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>へ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で精算番号を自動採番</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　・承認済みのデータは、未収入金滞留理由報告書を出力可能とする。</t>
+    <rPh sb="4" eb="6">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ミシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイリュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　　　→　　内部キー不要。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で精算番号を自動採番。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2013/11/11)</t>
+    </r>
+    <rPh sb="8" eb="10">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　　　　　→　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>登録</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で精算番号を自動採番。送信状況を画面に表示し、送信済みか判断可能にする。(2013/11/11)</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>ジョウキョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2618,7 +2874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -3014,37 +3270,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3076,7 +3301,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3216,6 +3441,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="24" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3273,18 +3501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
@@ -3318,13 +3534,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3373,13 +3589,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3428,13 +3644,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3483,13 +3699,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3538,13 +3754,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3593,13 +3809,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3648,13 +3864,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3703,13 +3919,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3758,13 +3974,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3813,13 +4029,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3868,13 +4084,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3923,13 +4139,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3978,13 +4194,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4033,13 +4249,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4088,13 +4304,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4143,13 +4359,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -27752,7 +27968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H202"/>
+  <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -27771,51 +27987,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" customHeight="1" thickBot="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="60"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
@@ -27844,13 +28060,13 @@
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="14" t="s">
         <v>6</v>
       </c>
@@ -27862,15 +28078,15 @@
       <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A8" s="39"/>
@@ -29235,7 +29451,9 @@
       <c r="H123" s="26"/>
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A124" s="43"/>
+      <c r="A124" s="43" t="s">
+        <v>178</v>
+      </c>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
@@ -29245,9 +29463,7 @@
       <c r="H124" s="26"/>
     </row>
     <row r="125" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A125" s="44" t="s">
-        <v>108</v>
-      </c>
+      <c r="A125" s="43"/>
       <c r="B125" s="23"/>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
@@ -29257,8 +29473,8 @@
       <c r="H125" s="26"/>
     </row>
     <row r="126" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A126" s="43" t="s">
-        <v>109</v>
+      <c r="A126" s="44" t="s">
+        <v>108</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
@@ -29270,7 +29486,7 @@
     </row>
     <row r="127" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A127" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
@@ -29282,7 +29498,7 @@
     </row>
     <row r="128" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A128" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
@@ -29294,7 +29510,7 @@
     </row>
     <row r="129" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A129" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
@@ -29306,7 +29522,7 @@
     </row>
     <row r="130" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A130" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -29318,7 +29534,7 @@
     </row>
     <row r="131" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A131" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -29330,7 +29546,7 @@
     </row>
     <row r="132" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A132" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -29341,8 +29557,8 @@
       <c r="H132" s="26"/>
     </row>
     <row r="133" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A133" s="44" t="s">
-        <v>116</v>
+      <c r="A133" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -29353,8 +29569,8 @@
       <c r="H133" s="26"/>
     </row>
     <row r="134" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A134" s="43" t="s">
-        <v>117</v>
+      <c r="A134" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -29366,7 +29582,7 @@
     </row>
     <row r="135" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A135" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -29378,7 +29594,7 @@
     </row>
     <row r="136" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A136" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -29390,7 +29606,7 @@
     </row>
     <row r="137" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A137" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -29402,7 +29618,7 @@
     </row>
     <row r="138" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A138" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -29414,7 +29630,7 @@
     </row>
     <row r="139" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A139" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -29426,7 +29642,7 @@
     </row>
     <row r="140" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A140" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -29438,7 +29654,7 @@
     </row>
     <row r="141" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A141" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B141" s="23"/>
       <c r="C141" s="23"/>
@@ -29450,7 +29666,7 @@
     </row>
     <row r="142" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A142" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142" s="23"/>
       <c r="C142" s="23"/>
@@ -29462,7 +29678,7 @@
     </row>
     <row r="143" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A143" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B143" s="23"/>
       <c r="C143" s="23"/>
@@ -29474,7 +29690,7 @@
     </row>
     <row r="144" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A144" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
@@ -29486,7 +29702,7 @@
     </row>
     <row r="145" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A145" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
@@ -29498,7 +29714,7 @@
     </row>
     <row r="146" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A146" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
@@ -29510,7 +29726,7 @@
     </row>
     <row r="147" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A147" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -29522,7 +29738,7 @@
     </row>
     <row r="148" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A148" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
@@ -29533,8 +29749,8 @@
       <c r="H148" s="26"/>
     </row>
     <row r="149" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A149" s="66" t="s">
-        <v>132</v>
+      <c r="A149" s="43" t="s">
+        <v>131</v>
       </c>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
@@ -29545,8 +29761,8 @@
       <c r="H149" s="26"/>
     </row>
     <row r="150" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A150" s="66" t="s">
-        <v>133</v>
+      <c r="A150" s="47" t="s">
+        <v>177</v>
       </c>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
@@ -29557,8 +29773,8 @@
       <c r="H150" s="26"/>
     </row>
     <row r="151" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A151" s="43" t="s">
-        <v>134</v>
+      <c r="A151" s="47" t="s">
+        <v>180</v>
       </c>
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
@@ -29569,8 +29785,8 @@
       <c r="H151" s="26"/>
     </row>
     <row r="152" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A152" s="43" t="s">
-        <v>135</v>
+      <c r="A152" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
@@ -29581,8 +29797,8 @@
       <c r="H152" s="26"/>
     </row>
     <row r="153" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A153" s="43" t="s">
-        <v>136</v>
+      <c r="A153" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
@@ -29593,7 +29809,9 @@
       <c r="H153" s="26"/>
     </row>
     <row r="154" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A154" s="43"/>
+      <c r="A154" s="47" t="s">
+        <v>179</v>
+      </c>
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
@@ -29603,8 +29821,8 @@
       <c r="H154" s="26"/>
     </row>
     <row r="155" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A155" s="44" t="s">
-        <v>137</v>
+      <c r="A155" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="B155" s="23"/>
       <c r="C155" s="23"/>
@@ -29616,7 +29834,7 @@
     </row>
     <row r="156" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A156" s="43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B156" s="23"/>
       <c r="C156" s="23"/>
@@ -29627,9 +29845,7 @@
       <c r="H156" s="26"/>
     </row>
     <row r="157" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A157" s="43" t="s">
-        <v>139</v>
-      </c>
+      <c r="A157" s="43"/>
       <c r="B157" s="23"/>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
@@ -29639,8 +29855,8 @@
       <c r="H157" s="26"/>
     </row>
     <row r="158" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A158" s="43" t="s">
-        <v>140</v>
+      <c r="A158" s="44" t="s">
+        <v>136</v>
       </c>
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
@@ -29652,7 +29868,7 @@
     </row>
     <row r="159" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A159" s="43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B159" s="23"/>
       <c r="C159" s="23"/>
@@ -29664,7 +29880,7 @@
     </row>
     <row r="160" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A160" s="43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B160" s="23"/>
       <c r="C160" s="23"/>
@@ -29676,7 +29892,7 @@
     </row>
     <row r="161" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A161" s="43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B161" s="23"/>
       <c r="C161" s="23"/>
@@ -29688,7 +29904,7 @@
     </row>
     <row r="162" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A162" s="43" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B162" s="23"/>
       <c r="C162" s="23"/>
@@ -29699,7 +29915,9 @@
       <c r="H162" s="26"/>
     </row>
     <row r="163" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A163" s="43"/>
+      <c r="A163" s="43" t="s">
+        <v>141</v>
+      </c>
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
@@ -29709,8 +29927,8 @@
       <c r="H163" s="26"/>
     </row>
     <row r="164" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A164" s="44" t="s">
-        <v>145</v>
+      <c r="A164" s="43" t="s">
+        <v>142</v>
       </c>
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
@@ -29722,7 +29940,7 @@
     </row>
     <row r="165" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A165" s="43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
@@ -29733,9 +29951,7 @@
       <c r="H165" s="26"/>
     </row>
     <row r="166" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A166" s="43" t="s">
-        <v>147</v>
-      </c>
+      <c r="A166" s="43"/>
       <c r="B166" s="23"/>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
@@ -29745,8 +29961,8 @@
       <c r="H166" s="26"/>
     </row>
     <row r="167" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A167" s="43" t="s">
-        <v>148</v>
+      <c r="A167" s="44" t="s">
+        <v>144</v>
       </c>
       <c r="B167" s="23"/>
       <c r="C167" s="23"/>
@@ -29758,7 +29974,7 @@
     </row>
     <row r="168" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A168" s="43" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B168" s="23"/>
       <c r="C168" s="23"/>
@@ -29770,7 +29986,7 @@
     </row>
     <row r="169" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A169" s="43" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B169" s="23"/>
       <c r="C169" s="23"/>
@@ -29782,7 +29998,7 @@
     </row>
     <row r="170" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A170" s="43" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B170" s="23"/>
       <c r="C170" s="23"/>
@@ -29794,7 +30010,7 @@
     </row>
     <row r="171" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A171" s="43" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
@@ -29806,7 +30022,7 @@
     </row>
     <row r="172" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A172" s="43" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
@@ -29818,7 +30034,7 @@
     </row>
     <row r="173" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A173" s="43" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B173" s="23"/>
       <c r="C173" s="23"/>
@@ -29830,7 +30046,7 @@
     </row>
     <row r="174" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A174" s="43" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B174" s="23"/>
       <c r="C174" s="23"/>
@@ -29842,7 +30058,7 @@
     </row>
     <row r="175" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A175" s="43" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B175" s="23"/>
       <c r="C175" s="23"/>
@@ -29854,7 +30070,7 @@
     </row>
     <row r="176" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A176" s="43" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B176" s="23"/>
       <c r="C176" s="23"/>
@@ -29866,7 +30082,7 @@
     </row>
     <row r="177" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A177" s="43" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
@@ -29878,7 +30094,7 @@
     </row>
     <row r="178" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A178" s="43" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B178" s="23"/>
       <c r="C178" s="23"/>
@@ -29889,7 +30105,9 @@
       <c r="H178" s="26"/>
     </row>
     <row r="179" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A179" s="43"/>
+      <c r="A179" s="43" t="s">
+        <v>172</v>
+      </c>
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
@@ -29899,8 +30117,8 @@
       <c r="H179" s="26"/>
     </row>
     <row r="180" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A180" s="44" t="s">
-        <v>160</v>
+      <c r="A180" s="43" t="s">
+        <v>169</v>
       </c>
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
@@ -29912,7 +30130,7 @@
     </row>
     <row r="181" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A181" s="43" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
@@ -29924,7 +30142,7 @@
     </row>
     <row r="182" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A182" s="43" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
@@ -29936,7 +30154,7 @@
     </row>
     <row r="183" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A183" s="43" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
@@ -29947,9 +30165,7 @@
       <c r="H183" s="26"/>
     </row>
     <row r="184" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A184" s="43" t="s">
-        <v>148</v>
-      </c>
+      <c r="A184" s="43"/>
       <c r="B184" s="23"/>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
@@ -29959,8 +30175,8 @@
       <c r="H184" s="26"/>
     </row>
     <row r="185" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A185" s="43" t="s">
-        <v>149</v>
+      <c r="A185" s="44" t="s">
+        <v>152</v>
       </c>
       <c r="B185" s="23"/>
       <c r="C185" s="23"/>
@@ -29972,7 +30188,7 @@
     </row>
     <row r="186" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A186" s="43" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B186" s="23"/>
       <c r="C186" s="23"/>
@@ -29984,7 +30200,7 @@
     </row>
     <row r="187" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A187" s="43" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B187" s="23"/>
       <c r="C187" s="23"/>
@@ -29996,7 +30212,7 @@
     </row>
     <row r="188" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A188" s="43" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B188" s="23"/>
       <c r="C188" s="23"/>
@@ -30008,7 +30224,7 @@
     </row>
     <row r="189" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A189" s="43" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B189" s="23"/>
       <c r="C189" s="23"/>
@@ -30020,7 +30236,7 @@
     </row>
     <row r="190" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A190" s="43" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B190" s="23"/>
       <c r="C190" s="23"/>
@@ -30031,7 +30247,9 @@
       <c r="H190" s="26"/>
     </row>
     <row r="191" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A191" s="43"/>
+      <c r="A191" s="43" t="s">
+        <v>148</v>
+      </c>
       <c r="B191" s="23"/>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
@@ -30041,8 +30259,8 @@
       <c r="H191" s="26"/>
     </row>
     <row r="192" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A192" s="44" t="s">
-        <v>167</v>
+      <c r="A192" s="43" t="s">
+        <v>149</v>
       </c>
       <c r="B192" s="23"/>
       <c r="C192" s="23"/>
@@ -30054,7 +30272,7 @@
     </row>
     <row r="193" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A193" s="43" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="B193" s="23"/>
       <c r="C193" s="23"/>
@@ -30066,7 +30284,7 @@
     </row>
     <row r="194" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A194" s="43" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B194" s="23"/>
       <c r="C194" s="23"/>
@@ -30078,7 +30296,7 @@
     </row>
     <row r="195" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A195" s="43" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B195" s="23"/>
       <c r="C195" s="23"/>
@@ -30089,7 +30307,9 @@
       <c r="H195" s="26"/>
     </row>
     <row r="196" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A196" s="43"/>
+      <c r="A196" s="43" t="s">
+        <v>166</v>
+      </c>
       <c r="B196" s="23"/>
       <c r="C196" s="23"/>
       <c r="D196" s="23"/>
@@ -30099,8 +30319,8 @@
       <c r="H196" s="26"/>
     </row>
     <row r="197" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A197" s="44" t="s">
-        <v>170</v>
+      <c r="A197" s="43" t="s">
+        <v>167</v>
       </c>
       <c r="B197" s="23"/>
       <c r="C197" s="23"/>
@@ -30111,9 +30331,7 @@
       <c r="H197" s="26"/>
     </row>
     <row r="198" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A198" s="43" t="s">
-        <v>171</v>
-      </c>
+      <c r="A198" s="43"/>
       <c r="B198" s="23"/>
       <c r="C198" s="23"/>
       <c r="D198" s="23"/>
@@ -30123,8 +30341,8 @@
       <c r="H198" s="26"/>
     </row>
     <row r="199" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A199" s="43" t="s">
-        <v>172</v>
+      <c r="A199" s="44" t="s">
+        <v>157</v>
       </c>
       <c r="B199" s="23"/>
       <c r="C199" s="23"/>
@@ -30134,41 +30352,157 @@
       <c r="G199" s="23"/>
       <c r="H199" s="26"/>
     </row>
-    <row r="200" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A200" s="67"/>
-      <c r="B200" s="68"/>
-      <c r="C200" s="68"/>
-      <c r="D200" s="68"/>
-      <c r="E200" s="68"/>
-      <c r="F200" s="68"/>
-      <c r="G200" s="68"/>
-      <c r="H200" s="69"/>
+    <row r="200" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A200" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B200" s="23"/>
+      <c r="C200" s="23"/>
+      <c r="D200" s="23"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="23"/>
+      <c r="H200" s="26"/>
     </row>
-    <row r="201" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A201" s="27"/>
-      <c r="B201" s="28"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
-      <c r="E201" s="28"/>
-      <c r="F201" s="28"/>
-      <c r="G201" s="28"/>
-      <c r="H201" s="29"/>
+    <row r="201" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A201" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B201" s="23"/>
+      <c r="C201" s="23"/>
+      <c r="D201" s="23"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="23"/>
+      <c r="H201" s="26"/>
     </row>
-    <row r="202" spans="1:8" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A202" s="36" t="s">
+    <row r="202" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A202" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B202" s="23"/>
+      <c r="C202" s="23"/>
+      <c r="D202" s="23"/>
+      <c r="E202" s="23"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="23"/>
+      <c r="H202" s="26"/>
+    </row>
+    <row r="203" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A203" s="43"/>
+      <c r="B203" s="23"/>
+      <c r="C203" s="23"/>
+      <c r="D203" s="23"/>
+      <c r="E203" s="23"/>
+      <c r="F203" s="23"/>
+      <c r="G203" s="23"/>
+      <c r="H203" s="26"/>
+    </row>
+    <row r="204" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A204" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B204" s="23"/>
+      <c r="C204" s="23"/>
+      <c r="D204" s="23"/>
+      <c r="E204" s="23"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="23"/>
+      <c r="H204" s="26"/>
+    </row>
+    <row r="205" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A205" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B205" s="23"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="23"/>
+      <c r="E205" s="23"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="23"/>
+      <c r="H205" s="26"/>
+    </row>
+    <row r="206" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A206" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B206" s="23"/>
+      <c r="C206" s="23"/>
+      <c r="D206" s="23"/>
+      <c r="E206" s="23"/>
+      <c r="F206" s="23"/>
+      <c r="G206" s="23"/>
+      <c r="H206" s="26"/>
+    </row>
+    <row r="207" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A207" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="23"/>
+      <c r="G207" s="23"/>
+      <c r="H207" s="26"/>
+    </row>
+    <row r="208" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A208" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B208" s="23"/>
+      <c r="C208" s="23"/>
+      <c r="D208" s="23"/>
+      <c r="E208" s="23"/>
+      <c r="F208" s="23"/>
+      <c r="G208" s="23"/>
+      <c r="H208" s="26"/>
+    </row>
+    <row r="209" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A209" s="34"/>
+      <c r="B209" s="23"/>
+      <c r="C209" s="23"/>
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="23"/>
+      <c r="H209" s="26"/>
+    </row>
+    <row r="210" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A210" s="34"/>
+      <c r="B210" s="23"/>
+      <c r="C210" s="23"/>
+      <c r="D210" s="23"/>
+      <c r="E210" s="23"/>
+      <c r="F210" s="23"/>
+      <c r="G210" s="23"/>
+      <c r="H210" s="26"/>
+    </row>
+    <row r="211" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
+      <c r="A211" s="27"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="28"/>
+      <c r="F211" s="28"/>
+      <c r="G211" s="28"/>
+      <c r="H211" s="29"/>
+    </row>
+    <row r="212" spans="1:8" ht="20.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A212" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B202" s="47"/>
-      <c r="C202" s="48"/>
-      <c r="D202" s="48"/>
-      <c r="E202" s="48"/>
-      <c r="F202" s="48"/>
-      <c r="G202" s="37"/>
-      <c r="H202" s="38"/>
+      <c r="B212" s="48"/>
+      <c r="C212" s="49"/>
+      <c r="D212" s="49"/>
+      <c r="E212" s="49"/>
+      <c r="F212" s="49"/>
+      <c r="G212" s="37"/>
+      <c r="H212" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B212:F212"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>

--- a/30 議事録/議事録_20131107.xlsx
+++ b/30 議事録/議事録_20131107.xlsx
@@ -258,13 +258,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山田</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>　M</t>
     </r>
@@ -781,98 +774,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>　　　　　・「宿泊費消費税」追加　※消費税率は講演会開催日(FROM)に従う。　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※NOZOMI送信対象外</t>
-    </r>
-    <rPh sb="7" eb="10">
-      <t>シュクハクヒ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>カイサイビ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>シタガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>　　　　　・「宿泊費(税込)」追加（従来の宿泊費は「税抜」扱いとする)　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※NOZOMI送信対象外・SAP送信対象</t>
-    </r>
-    <rPh sb="7" eb="10">
-      <t>シュクハクヒ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ゼイコミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジュウライ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>シュクハクヒ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ゼイヌキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　　■更新</t>
     <rPh sb="3" eb="5">
       <t>コウシン</t>
@@ -1064,37 +965,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　　　　　　　　・「手配担当者(ローマ字)」の上に「講演会企画担当者(ローマ字)」を追加する。</t>
-    <rPh sb="10" eb="12">
-      <t>テハイ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　　　　　・DR情報の「氏名」と「氏名(カナ)」は上下段とする。</t>
     <rPh sb="8" eb="10">
       <t>ジョウホウ</t>
@@ -1398,92 +1268,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>　　　　　・「MR宿泊費消費税」追加　※消費税率は講演会開催日(FROM)に従う。　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※NOZOMI送信対象外</t>
-    </r>
-    <rPh sb="9" eb="12">
-      <t>シュクハクヒ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>コウエンカイ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>カイサイビ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>シタガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>　　　　　・「MR宿泊費(税込)」追加（従来のMR宿泊費は「税抜」扱いとする)　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※NOZOMI送信対象外</t>
-    </r>
-    <rPh sb="9" eb="12">
-      <t>シュクハクヒ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ゼイコミ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジュウライ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>シュクハクヒ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ゼイヌキ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ガイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2683,6 +2467,114 @@
     </r>
     <rPh sb="25" eb="27">
       <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　・各種検索画面の一覧、及び詳細画面に「NOZOMI送信ステータス」を表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　・各種履歴一覧を印刷可能とする。</t>
+    <rPh sb="6" eb="8">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　■製品マスタ追加</t>
+    <rPh sb="3" eb="5">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　　　・担当者→TOP担当者</t>
+    <rPh sb="9" eb="12">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　　　　　　　・「BYL手配担当者(ローマ字)」の上に「BYL企画担当者(ローマ字)」を追加する。</t>
+    <rPh sb="13" eb="15">
+      <t>テハイ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恵和ビジネス</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -27971,7 +27863,7 @@
   <dimension ref="A1:H212"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.25"/>
@@ -28029,14 +27921,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -28071,7 +27963,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
@@ -28079,7 +27971,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
@@ -28100,7 +27992,7 @@
     </row>
     <row r="9" spans="1:8" s="17" customFormat="1" ht="11.25" customHeight="1">
       <c r="A9" s="42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -28122,7 +28014,7 @@
     </row>
     <row r="11" spans="1:8" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -28134,7 +28026,7 @@
     </row>
     <row r="12" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -28146,7 +28038,7 @@
     </row>
     <row r="13" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A13" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -28158,7 +28050,7 @@
     </row>
     <row r="14" spans="1:8" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="35"/>
       <c r="C14" s="23"/>
@@ -28170,7 +28062,7 @@
     </row>
     <row r="15" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A15" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="23"/>
@@ -28182,7 +28074,7 @@
     </row>
     <row r="16" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A16" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="23"/>
@@ -28194,7 +28086,7 @@
     </row>
     <row r="17" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A17" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="23"/>
@@ -28206,7 +28098,7 @@
     </row>
     <row r="18" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A18" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="23"/>
@@ -28218,7 +28110,7 @@
     </row>
     <row r="19" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -28250,7 +28142,7 @@
     </row>
     <row r="22" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A22" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="23"/>
@@ -28262,7 +28154,7 @@
     </row>
     <row r="23" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A23" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -28274,7 +28166,7 @@
     </row>
     <row r="24" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A24" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="23"/>
@@ -28296,7 +28188,7 @@
     </row>
     <row r="26" spans="1:8" s="33" customFormat="1" ht="11.25" customHeight="1">
       <c r="A26" s="43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="23"/>
@@ -28318,7 +28210,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="40"/>
@@ -28330,7 +28222,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="40"/>
@@ -28342,7 +28234,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="40"/>
@@ -28354,7 +28246,7 @@
     </row>
     <row r="31" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -28366,7 +28258,7 @@
     </row>
     <row r="32" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A32" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -28377,8 +28269,10 @@
       <c r="H32" s="26"/>
     </row>
     <row r="33" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="35"/>
+      <c r="A33" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="23"/>
       <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
@@ -28387,8 +28281,8 @@
       <c r="H33" s="26"/>
     </row>
     <row r="34" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A34" s="44" t="s">
-        <v>40</v>
+      <c r="A34" s="43" t="s">
+        <v>176</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -28399,10 +28293,8 @@
       <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A35" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="30"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
@@ -28411,8 +28303,8 @@
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A36" s="43" t="s">
-        <v>55</v>
+      <c r="A36" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -28424,9 +28316,9 @@
     </row>
     <row r="37" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A37" s="43" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
-      <c r="B37" s="23"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
@@ -28436,7 +28328,7 @@
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A38" s="43" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -28460,7 +28352,7 @@
     </row>
     <row r="40" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A40" s="43" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -28470,21 +28362,21 @@
       <c r="G40" s="23"/>
       <c r="H40" s="26"/>
     </row>
-    <row r="41" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A41" s="42" t="s">
-        <v>50</v>
+    <row r="41" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A41" s="43" t="s">
+        <v>48</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="41"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A42" s="43" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -28494,21 +28386,21 @@
       <c r="G42" s="23"/>
       <c r="H42" s="26"/>
     </row>
-    <row r="43" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A43" s="43" t="s">
-        <v>73</v>
+    <row r="43" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A43" s="42" t="s">
+        <v>44</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="26"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:8" ht="11.25" customHeight="1">
       <c r="A44" s="42" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -28520,7 +28412,7 @@
     </row>
     <row r="45" spans="1:8" ht="11.25" customHeight="1">
       <c r="A45" s="42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -28532,7 +28424,7 @@
     </row>
     <row r="46" spans="1:8" ht="11.25" customHeight="1">
       <c r="A46" s="42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -28544,7 +28436,7 @@
     </row>
     <row r="47" spans="1:8" ht="11.25" customHeight="1">
       <c r="A47" s="42" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
@@ -28555,9 +28447,7 @@
       <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A48" s="42" t="s">
-        <v>48</v>
-      </c>
+      <c r="A48" s="42"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
       <c r="D48" s="40"/>
@@ -28566,8 +28456,10 @@
       <c r="G48" s="40"/>
       <c r="H48" s="41"/>
     </row>
-    <row r="49" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A49" s="42"/>
+    <row r="49" spans="1:8">
+      <c r="A49" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
       <c r="D49" s="40"/>
@@ -28576,17 +28468,17 @@
       <c r="G49" s="40"/>
       <c r="H49" s="41"/>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="44" t="s">
-        <v>28</v>
+    <row r="50" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A50" s="43" t="s">
+        <v>31</v>
       </c>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="41"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A51" s="43" t="s">
@@ -28602,7 +28494,7 @@
     </row>
     <row r="52" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A52" s="43" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -28614,9 +28506,9 @@
     </row>
     <row r="53" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A53" s="43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
@@ -28628,7 +28520,7 @@
       <c r="A54" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="45"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -28638,7 +28530,7 @@
     </row>
     <row r="55" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A55" s="43" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -28650,7 +28542,7 @@
     </row>
     <row r="56" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A56" s="43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B56" s="35"/>
       <c r="C56" s="23"/>
@@ -28662,7 +28554,7 @@
     </row>
     <row r="57" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A57" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -28684,7 +28576,7 @@
     </row>
     <row r="59" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A59" s="44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -28696,7 +28588,7 @@
     </row>
     <row r="60" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A60" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -28708,7 +28600,7 @@
     </row>
     <row r="61" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A61" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -28720,7 +28612,7 @@
     </row>
     <row r="62" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A62" s="43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -28732,7 +28624,7 @@
     </row>
     <row r="63" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A63" s="43" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -28744,7 +28636,7 @@
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A64" s="43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B64" s="23"/>
       <c r="C64" s="23"/>
@@ -28756,7 +28648,7 @@
     </row>
     <row r="65" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A65" s="43" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="B65" s="23"/>
       <c r="C65" s="23"/>
@@ -28768,7 +28660,7 @@
     </row>
     <row r="66" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A66" s="43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="23"/>
@@ -28780,7 +28672,7 @@
     </row>
     <row r="67" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A67" s="43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="23"/>
@@ -28792,7 +28684,7 @@
     </row>
     <row r="68" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A68" s="43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="23"/>
@@ -28804,7 +28696,7 @@
     </row>
     <row r="69" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A69" s="43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="23"/>
@@ -28816,7 +28708,7 @@
     </row>
     <row r="70" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A70" s="43" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B70" s="23"/>
       <c r="C70" s="23"/>
@@ -28828,7 +28720,7 @@
     </row>
     <row r="71" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A71" s="43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="23"/>
@@ -28840,7 +28732,7 @@
     </row>
     <row r="72" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A72" s="43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B72" s="23"/>
       <c r="C72" s="23"/>
@@ -28852,7 +28744,7 @@
     </row>
     <row r="73" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A73" s="43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B73" s="23"/>
       <c r="C73" s="23"/>
@@ -28864,7 +28756,7 @@
     </row>
     <row r="74" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A74" s="43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B74" s="23"/>
       <c r="C74" s="23"/>
@@ -28876,7 +28768,7 @@
     </row>
     <row r="75" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A75" s="43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B75" s="23"/>
       <c r="C75" s="23"/>
@@ -28888,7 +28780,7 @@
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A76" s="43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="23"/>
@@ -28900,7 +28792,7 @@
     </row>
     <row r="77" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A77" s="43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -28912,7 +28804,7 @@
     </row>
     <row r="78" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A78" s="43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B78" s="23"/>
       <c r="C78" s="23"/>
@@ -28924,7 +28816,7 @@
     </row>
     <row r="79" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A79" s="43" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B79" s="23"/>
       <c r="C79" s="23"/>
@@ -28936,7 +28828,7 @@
     </row>
     <row r="80" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A80" s="43" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B80" s="23"/>
       <c r="C80" s="23"/>
@@ -28958,7 +28850,7 @@
     </row>
     <row r="82" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A82" s="44" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B82" s="23"/>
       <c r="C82" s="23"/>
@@ -28970,7 +28862,7 @@
     </row>
     <row r="83" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A83" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B83" s="23"/>
       <c r="C83" s="23"/>
@@ -28982,7 +28874,7 @@
     </row>
     <row r="84" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A84" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B84" s="45"/>
       <c r="C84" s="23"/>
@@ -28994,7 +28886,7 @@
     </row>
     <row r="85" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A85" s="43" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B85" s="23"/>
       <c r="C85" s="23"/>
@@ -29006,7 +28898,7 @@
     </row>
     <row r="86" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A86" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -29018,7 +28910,7 @@
     </row>
     <row r="87" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A87" s="43" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B87" s="23"/>
       <c r="C87" s="23"/>
@@ -29030,7 +28922,7 @@
     </row>
     <row r="88" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A88" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B88" s="23"/>
       <c r="C88" s="23"/>
@@ -29042,7 +28934,7 @@
     </row>
     <row r="89" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A89" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -29054,7 +28946,7 @@
     </row>
     <row r="90" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A90" s="43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B90" s="23"/>
       <c r="C90" s="23"/>
@@ -29066,7 +28958,7 @@
     </row>
     <row r="91" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A91" s="43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B91" s="46"/>
       <c r="C91" s="23"/>
@@ -29078,7 +28970,7 @@
     </row>
     <row r="92" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A92" s="43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B92" s="23"/>
       <c r="C92" s="23"/>
@@ -29090,7 +28982,7 @@
     </row>
     <row r="93" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A93" s="43" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B93" s="23"/>
       <c r="C93" s="23"/>
@@ -29102,7 +28994,7 @@
     </row>
     <row r="94" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A94" s="43" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B94" s="23"/>
       <c r="C94" s="23"/>
@@ -29114,7 +29006,7 @@
     </row>
     <row r="95" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A95" s="34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B95" s="23"/>
       <c r="C95" s="23"/>
@@ -29126,7 +29018,7 @@
     </row>
     <row r="96" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A96" s="43" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B96" s="23"/>
       <c r="C96" s="23"/>
@@ -29138,7 +29030,7 @@
     </row>
     <row r="97" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A97" s="43" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B97" s="23"/>
       <c r="C97" s="23"/>
@@ -29150,7 +29042,7 @@
     </row>
     <row r="98" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A98" s="43" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B98" s="23"/>
       <c r="C98" s="23"/>
@@ -29162,7 +29054,7 @@
     </row>
     <row r="99" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A99" s="34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B99" s="23"/>
       <c r="C99" s="23"/>
@@ -29174,7 +29066,7 @@
     </row>
     <row r="100" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A100" s="43" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B100" s="23"/>
       <c r="C100" s="23"/>
@@ -29196,7 +29088,7 @@
     </row>
     <row r="102" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A102" s="44" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B102" s="23"/>
       <c r="C102" s="23"/>
@@ -29208,7 +29100,7 @@
     </row>
     <row r="103" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A103" s="43" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B103" s="23"/>
       <c r="C103" s="23"/>
@@ -29230,7 +29122,7 @@
     </row>
     <row r="105" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A105" s="44" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -29242,7 +29134,7 @@
     </row>
     <row r="106" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A106" s="43" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B106" s="23"/>
       <c r="C106" s="23"/>
@@ -29264,7 +29156,7 @@
     </row>
     <row r="108" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A108" s="44" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B108" s="23"/>
       <c r="C108" s="23"/>
@@ -29276,7 +29168,7 @@
     </row>
     <row r="109" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A109" s="43" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B109" s="23"/>
       <c r="C109" s="23"/>
@@ -29298,7 +29190,7 @@
     </row>
     <row r="111" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A111" s="44" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B111" s="23"/>
       <c r="C111" s="23"/>
@@ -29310,7 +29202,7 @@
     </row>
     <row r="112" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A112" s="43" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B112" s="23"/>
       <c r="C112" s="23"/>
@@ -29322,7 +29214,7 @@
     </row>
     <row r="113" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A113" s="43" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B113" s="23"/>
       <c r="C113" s="23"/>
@@ -29334,7 +29226,7 @@
     </row>
     <row r="114" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A114" s="43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B114" s="23"/>
       <c r="C114" s="23"/>
@@ -29346,7 +29238,7 @@
     </row>
     <row r="115" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A115" s="43" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B115" s="23"/>
       <c r="C115" s="23"/>
@@ -29358,7 +29250,7 @@
     </row>
     <row r="116" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A116" s="43" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B116" s="23"/>
       <c r="C116" s="23"/>
@@ -29380,7 +29272,7 @@
     </row>
     <row r="118" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A118" s="44" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B118" s="23"/>
       <c r="C118" s="23"/>
@@ -29392,7 +29284,7 @@
     </row>
     <row r="119" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A119" s="43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B119" s="23"/>
       <c r="C119" s="23"/>
@@ -29404,7 +29296,7 @@
     </row>
     <row r="120" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A120" s="43" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B120" s="23"/>
       <c r="C120" s="23"/>
@@ -29416,7 +29308,7 @@
     </row>
     <row r="121" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A121" s="43" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B121" s="23"/>
       <c r="C121" s="23"/>
@@ -29428,7 +29320,7 @@
     </row>
     <row r="122" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A122" s="43" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B122" s="23"/>
       <c r="C122" s="23"/>
@@ -29440,7 +29332,7 @@
     </row>
     <row r="123" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A123" s="43" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B123" s="23"/>
       <c r="C123" s="23"/>
@@ -29452,7 +29344,7 @@
     </row>
     <row r="124" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A124" s="43" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B124" s="23"/>
       <c r="C124" s="23"/>
@@ -29474,7 +29366,7 @@
     </row>
     <row r="126" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A126" s="44" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B126" s="23"/>
       <c r="C126" s="23"/>
@@ -29486,7 +29378,7 @@
     </row>
     <row r="127" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A127" s="43" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B127" s="23"/>
       <c r="C127" s="23"/>
@@ -29498,7 +29390,7 @@
     </row>
     <row r="128" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A128" s="43" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B128" s="23"/>
       <c r="C128" s="23"/>
@@ -29510,7 +29402,7 @@
     </row>
     <row r="129" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A129" s="43" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B129" s="23"/>
       <c r="C129" s="23"/>
@@ -29522,7 +29414,7 @@
     </row>
     <row r="130" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A130" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B130" s="23"/>
       <c r="C130" s="23"/>
@@ -29534,7 +29426,7 @@
     </row>
     <row r="131" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A131" s="43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B131" s="23"/>
       <c r="C131" s="23"/>
@@ -29546,7 +29438,7 @@
     </row>
     <row r="132" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A132" s="43" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B132" s="23"/>
       <c r="C132" s="23"/>
@@ -29558,7 +29450,7 @@
     </row>
     <row r="133" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A133" s="43" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B133" s="23"/>
       <c r="C133" s="23"/>
@@ -29570,7 +29462,7 @@
     </row>
     <row r="134" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A134" s="44" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B134" s="23"/>
       <c r="C134" s="23"/>
@@ -29582,7 +29474,7 @@
     </row>
     <row r="135" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A135" s="43" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B135" s="23"/>
       <c r="C135" s="23"/>
@@ -29594,7 +29486,7 @@
     </row>
     <row r="136" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A136" s="43" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B136" s="23"/>
       <c r="C136" s="23"/>
@@ -29606,7 +29498,7 @@
     </row>
     <row r="137" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A137" s="43" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B137" s="23"/>
       <c r="C137" s="23"/>
@@ -29618,7 +29510,7 @@
     </row>
     <row r="138" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A138" s="43" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B138" s="23"/>
       <c r="C138" s="23"/>
@@ -29630,7 +29522,7 @@
     </row>
     <row r="139" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A139" s="43" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B139" s="23"/>
       <c r="C139" s="23"/>
@@ -29642,7 +29534,7 @@
     </row>
     <row r="140" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A140" s="43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B140" s="23"/>
       <c r="C140" s="23"/>
@@ -29654,7 +29546,7 @@
     </row>
     <row r="141" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A141" s="43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B141" s="23"/>
       <c r="C141" s="23"/>
@@ -29666,7 +29558,7 @@
     </row>
     <row r="142" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A142" s="43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B142" s="23"/>
       <c r="C142" s="23"/>
@@ -29678,7 +29570,7 @@
     </row>
     <row r="143" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A143" s="43" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B143" s="23"/>
       <c r="C143" s="23"/>
@@ -29690,7 +29582,7 @@
     </row>
     <row r="144" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A144" s="43" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B144" s="23"/>
       <c r="C144" s="23"/>
@@ -29702,7 +29594,7 @@
     </row>
     <row r="145" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A145" s="43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
@@ -29714,7 +29606,7 @@
     </row>
     <row r="146" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A146" s="43" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B146" s="23"/>
       <c r="C146" s="23"/>
@@ -29726,7 +29618,7 @@
     </row>
     <row r="147" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A147" s="43" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B147" s="23"/>
       <c r="C147" s="23"/>
@@ -29738,7 +29630,7 @@
     </row>
     <row r="148" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A148" s="43" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B148" s="23"/>
       <c r="C148" s="23"/>
@@ -29750,7 +29642,7 @@
     </row>
     <row r="149" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A149" s="43" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B149" s="23"/>
       <c r="C149" s="23"/>
@@ -29762,7 +29654,7 @@
     </row>
     <row r="150" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A150" s="47" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B150" s="23"/>
       <c r="C150" s="23"/>
@@ -29774,7 +29666,7 @@
     </row>
     <row r="151" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A151" s="47" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B151" s="23"/>
       <c r="C151" s="23"/>
@@ -29786,7 +29678,7 @@
     </row>
     <row r="152" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A152" s="47" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B152" s="23"/>
       <c r="C152" s="23"/>
@@ -29798,7 +29690,7 @@
     </row>
     <row r="153" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A153" s="34" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B153" s="23"/>
       <c r="C153" s="23"/>
@@ -29810,7 +29702,7 @@
     </row>
     <row r="154" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A154" s="47" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B154" s="23"/>
       <c r="C154" s="23"/>
@@ -29822,7 +29714,7 @@
     </row>
     <row r="155" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A155" s="43" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B155" s="23"/>
       <c r="C155" s="23"/>
@@ -29834,7 +29726,7 @@
     </row>
     <row r="156" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A156" s="43" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B156" s="23"/>
       <c r="C156" s="23"/>
@@ -29856,7 +29748,7 @@
     </row>
     <row r="158" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A158" s="44" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B158" s="23"/>
       <c r="C158" s="23"/>
@@ -29868,7 +29760,7 @@
     </row>
     <row r="159" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A159" s="43" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B159" s="23"/>
       <c r="C159" s="23"/>
@@ -29880,7 +29772,7 @@
     </row>
     <row r="160" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A160" s="43" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B160" s="23"/>
       <c r="C160" s="23"/>
@@ -29892,7 +29784,7 @@
     </row>
     <row r="161" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A161" s="43" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B161" s="23"/>
       <c r="C161" s="23"/>
@@ -29904,7 +29796,7 @@
     </row>
     <row r="162" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A162" s="43" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B162" s="23"/>
       <c r="C162" s="23"/>
@@ -29916,7 +29808,7 @@
     </row>
     <row r="163" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A163" s="43" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B163" s="23"/>
       <c r="C163" s="23"/>
@@ -29928,7 +29820,7 @@
     </row>
     <row r="164" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A164" s="43" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B164" s="23"/>
       <c r="C164" s="23"/>
@@ -29940,7 +29832,7 @@
     </row>
     <row r="165" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A165" s="43" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B165" s="23"/>
       <c r="C165" s="23"/>
@@ -29962,7 +29854,7 @@
     </row>
     <row r="167" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A167" s="44" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B167" s="23"/>
       <c r="C167" s="23"/>
@@ -29974,7 +29866,7 @@
     </row>
     <row r="168" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A168" s="43" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B168" s="23"/>
       <c r="C168" s="23"/>
@@ -29986,7 +29878,7 @@
     </row>
     <row r="169" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A169" s="43" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B169" s="23"/>
       <c r="C169" s="23"/>
@@ -29998,7 +29890,7 @@
     </row>
     <row r="170" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A170" s="43" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B170" s="23"/>
       <c r="C170" s="23"/>
@@ -30010,7 +29902,7 @@
     </row>
     <row r="171" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A171" s="43" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B171" s="23"/>
       <c r="C171" s="23"/>
@@ -30022,7 +29914,7 @@
     </row>
     <row r="172" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A172" s="43" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B172" s="23"/>
       <c r="C172" s="23"/>
@@ -30034,7 +29926,7 @@
     </row>
     <row r="173" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A173" s="43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B173" s="23"/>
       <c r="C173" s="23"/>
@@ -30046,7 +29938,7 @@
     </row>
     <row r="174" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A174" s="43" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B174" s="23"/>
       <c r="C174" s="23"/>
@@ -30058,7 +29950,7 @@
     </row>
     <row r="175" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A175" s="43" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B175" s="23"/>
       <c r="C175" s="23"/>
@@ -30070,7 +29962,7 @@
     </row>
     <row r="176" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A176" s="43" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B176" s="23"/>
       <c r="C176" s="23"/>
@@ -30082,7 +29974,7 @@
     </row>
     <row r="177" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A177" s="43" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B177" s="23"/>
       <c r="C177" s="23"/>
@@ -30094,7 +29986,7 @@
     </row>
     <row r="178" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A178" s="43" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B178" s="23"/>
       <c r="C178" s="23"/>
@@ -30106,7 +29998,7 @@
     </row>
     <row r="179" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A179" s="43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B179" s="23"/>
       <c r="C179" s="23"/>
@@ -30118,7 +30010,7 @@
     </row>
     <row r="180" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A180" s="43" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B180" s="23"/>
       <c r="C180" s="23"/>
@@ -30130,7 +30022,7 @@
     </row>
     <row r="181" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A181" s="43" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B181" s="23"/>
       <c r="C181" s="23"/>
@@ -30142,7 +30034,7 @@
     </row>
     <row r="182" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A182" s="43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B182" s="23"/>
       <c r="C182" s="23"/>
@@ -30154,7 +30046,7 @@
     </row>
     <row r="183" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A183" s="43" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B183" s="23"/>
       <c r="C183" s="23"/>
@@ -30176,7 +30068,7 @@
     </row>
     <row r="185" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A185" s="44" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B185" s="23"/>
       <c r="C185" s="23"/>
@@ -30188,7 +30080,7 @@
     </row>
     <row r="186" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A186" s="43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B186" s="23"/>
       <c r="C186" s="23"/>
@@ -30200,7 +30092,7 @@
     </row>
     <row r="187" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A187" s="43" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B187" s="23"/>
       <c r="C187" s="23"/>
@@ -30212,7 +30104,7 @@
     </row>
     <row r="188" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A188" s="43" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B188" s="23"/>
       <c r="C188" s="23"/>
@@ -30224,7 +30116,7 @@
     </row>
     <row r="189" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A189" s="43" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B189" s="23"/>
       <c r="C189" s="23"/>
@@ -30236,7 +30128,7 @@
     </row>
     <row r="190" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A190" s="43" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B190" s="23"/>
       <c r="C190" s="23"/>
@@ -30248,7 +30140,7 @@
     </row>
     <row r="191" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A191" s="43" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B191" s="23"/>
       <c r="C191" s="23"/>
@@ -30260,7 +30152,7 @@
     </row>
     <row r="192" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A192" s="43" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B192" s="23"/>
       <c r="C192" s="23"/>
@@ -30272,7 +30164,7 @@
     </row>
     <row r="193" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A193" s="43" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B193" s="23"/>
       <c r="C193" s="23"/>
@@ -30284,7 +30176,7 @@
     </row>
     <row r="194" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A194" s="43" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B194" s="23"/>
       <c r="C194" s="23"/>
@@ -30296,7 +30188,7 @@
     </row>
     <row r="195" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A195" s="43" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B195" s="23"/>
       <c r="C195" s="23"/>
@@ -30308,7 +30200,7 @@
     </row>
     <row r="196" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A196" s="43" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B196" s="23"/>
       <c r="C196" s="23"/>
@@ -30320,7 +30212,7 @@
     </row>
     <row r="197" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A197" s="43" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B197" s="23"/>
       <c r="C197" s="23"/>
@@ -30342,7 +30234,7 @@
     </row>
     <row r="199" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A199" s="44" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B199" s="23"/>
       <c r="C199" s="23"/>
@@ -30354,7 +30246,7 @@
     </row>
     <row r="200" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A200" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B200" s="23"/>
       <c r="C200" s="23"/>
@@ -30366,7 +30258,7 @@
     </row>
     <row r="201" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A201" s="43" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B201" s="23"/>
       <c r="C201" s="23"/>
@@ -30378,7 +30270,7 @@
     </row>
     <row r="202" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A202" s="43" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B202" s="23"/>
       <c r="C202" s="23"/>
@@ -30400,7 +30292,7 @@
     </row>
     <row r="204" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A204" s="44" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B204" s="23"/>
       <c r="C204" s="23"/>
@@ -30412,7 +30304,7 @@
     </row>
     <row r="205" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A205" s="43" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B205" s="23"/>
       <c r="C205" s="23"/>
@@ -30424,7 +30316,7 @@
     </row>
     <row r="206" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A206" s="43" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B206" s="23"/>
       <c r="C206" s="23"/>
@@ -30436,7 +30328,7 @@
     </row>
     <row r="207" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A207" s="43" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B207" s="23"/>
       <c r="C207" s="23"/>
@@ -30448,7 +30340,7 @@
     </row>
     <row r="208" spans="1:8" s="22" customFormat="1" ht="11.25" customHeight="1">
       <c r="A208" s="43" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B208" s="23"/>
       <c r="C208" s="23"/>
